--- a/00_Document/01_DB_Design/Database.xlsx
+++ b/00_Document/01_DB_Design/Database.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HL\Desktop\OJT Project (Restaurant Management)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B160A996-96BC-4BFB-9D6C-39EAFF3B8898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F135BCE5-864D-416B-9886-BCDE414A2890}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="79">
   <si>
     <t>Category</t>
   </si>
@@ -45,21 +39,12 @@
     <t>ENUM</t>
   </si>
   <si>
-    <t>start_join_date</t>
-  </si>
-  <si>
-    <t>開始日(Login)</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
     <t>YYYYMMDD</t>
   </si>
   <si>
-    <t>late_join_date</t>
-  </si>
-  <si>
     <t>created_at</t>
   </si>
   <si>
@@ -97,9 +82,6 @@
   </si>
   <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>食物</t>
   </si>
   <si>
     <t>price</t>
@@ -261,25 +243,28 @@
     <t>start_date</t>
   </si>
   <si>
-    <t>attendance</t>
-  </si>
-  <si>
-    <t>出席</t>
-  </si>
-  <si>
-    <t>出席Id</t>
-  </si>
-  <si>
-    <t>最終日(Logout)</t>
-  </si>
-  <si>
-    <t>Attendance</t>
+    <t>Order Detail</t>
+  </si>
+  <si>
+    <t>order_detail</t>
+  </si>
+  <si>
+    <t>注文詳細</t>
+  </si>
+  <si>
+    <t>注文詳細Id</t>
+  </si>
+  <si>
+    <t>foodorder_id</t>
+  </si>
+  <si>
+    <t>food_count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -347,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -439,12 +424,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -524,18 +550,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{C5F71C65-9105-46BC-871F-9284AB48C310}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -839,35 +871,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A17E590-84C8-43DD-8DEC-D65A34818E7C}">
-  <dimension ref="A1:L48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:K48"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="10" max="10" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,64 +913,64 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+    <row r="2" spans="1:12" ht="15" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1">
+    <row r="3" spans="1:12" ht="15" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I3" s="13">
         <v>1</v>
@@ -949,21 +979,21 @@
       <c r="K3" s="14"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1">
+    <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>4</v>
@@ -972,17 +1002,17 @@
         <v>30</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="14"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="5" spans="1:12" ht="15" thickBot="1"/>
+    <row r="6" spans="1:12" ht="15" thickBot="1">
       <c r="A6" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -995,63 +1025,63 @@
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+    <row r="7" spans="1:12" ht="15" thickBot="1">
       <c r="A7" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1">
       <c r="A8" s="7">
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I8" s="13">
         <v>1</v>
@@ -1059,21 +1089,21 @@
       <c r="J8" s="11"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1">
+    <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="A9" s="7">
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>4</v>
@@ -1082,27 +1112,27 @@
         <v>100</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1">
+    <row r="10" spans="1:12" ht="15" thickBot="1">
       <c r="A10" s="7">
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>4</v>
@@ -1111,88 +1141,88 @@
         <v>255</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1">
+    <row r="11" spans="1:12" ht="15" thickBot="1">
       <c r="A11" s="7">
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1">
+    <row r="12" spans="1:12" ht="15" thickBot="1">
       <c r="A12" s="7">
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>42</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>46</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:12" ht="16.5" thickBot="1">
+    <row r="13" spans="1:12" ht="15" thickBot="1">
       <c r="A13" s="7">
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="E13" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -1203,28 +1233,28 @@
         <v>7</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
@@ -1232,29 +1262,29 @@
         <v>8</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1">
       <c r="A16" s="23"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1267,68 +1297,68 @@
       <c r="J16" s="11"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1">
+    <row r="18" spans="1:11" ht="15" thickBot="1">
       <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1">
       <c r="A20" s="7">
         <v>1</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I20" s="13">
         <v>1</v>
@@ -1341,282 +1371,282 @@
         <v>2</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="27"/>
-      <c r="H21" s="29" t="s">
-        <v>62</v>
+      <c r="H21" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" spans="1:11" ht="16.5" thickBot="1">
+    <row r="22" spans="1:11" ht="15" thickBot="1">
       <c r="A22" s="7">
         <v>3</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A23" s="7">
+    <row r="23" spans="1:11" ht="15" thickBot="1">
+      <c r="A23" s="25">
         <v>4</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5" thickBot="1">
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A24" s="7">
         <v>5</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="28">
-        <v>200</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="21" customHeight="1" thickBot="1">
       <c r="A25" s="25">
         <v>6</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>70</v>
+        <v>8</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" thickBot="1">
+      <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="A26" s="25">
-        <v>7</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="26" t="s">
+      <c r="B29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1">
+      <c r="A30" s="7">
+        <v>1</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="F30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="13">
         <v>1</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="J30" s="11"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1">
+      <c r="A31" s="7">
+        <v>2</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="15">
+        <v>30</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A31" s="7">
-        <v>1</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I31" s="13">
-        <v>1</v>
-      </c>
+      <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" ht="16.5" thickBot="1">
+    <row r="32" spans="1:11" ht="15" thickBot="1">
       <c r="A32" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="15">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" thickBot="1">
+    <row r="33" spans="1:44" ht="15" thickBot="1">
       <c r="A33" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>4</v>
@@ -1625,368 +1655,562 @@
         <v>100</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" thickBot="1">
+    <row r="34" spans="1:44" ht="15" thickBot="1">
       <c r="A34" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>73</v>
+        <v>51</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="15">
-        <v>100</v>
-      </c>
+      <c r="G34" s="11"/>
       <c r="H34" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A35" s="7">
+    <row r="35" spans="1:44" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A35" s="25">
+        <v>6</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="G35" s="27"/>
+      <c r="H35" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="36" spans="1:44" ht="23.25" customHeight="1" thickBot="1">
       <c r="A36" s="25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>53</v>
+        <v>70</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G36" s="27"/>
-      <c r="H36" s="29" t="s">
-        <v>62</v>
+      <c r="H36" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
       <c r="K36" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" ht="15" thickBot="1">
       <c r="A37" s="25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G37" s="27"/>
-      <c r="H37" s="29" t="s">
-        <v>62</v>
-      </c>
+      <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
       <c r="K37" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" ht="21.75" customHeight="1" thickBot="1">
       <c r="A38" s="25">
+        <v>9</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>76</v>
-      </c>
       <c r="E38" s="24" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
+      <c r="J38" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="K38" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A39" s="25">
-        <v>9</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="24" t="s">
+    </row>
+    <row r="40" spans="1:44" ht="15" thickBot="1"/>
+    <row r="41" spans="1:44" ht="15" thickBot="1">
+      <c r="A41" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="30"/>
+      <c r="AG41" s="30"/>
+      <c r="AH41" s="30"/>
+      <c r="AI41" s="30"/>
+      <c r="AJ41" s="30"/>
+      <c r="AK41" s="30"/>
+      <c r="AL41" s="30"/>
+      <c r="AM41" s="30"/>
+      <c r="AN41" s="30"/>
+      <c r="AO41" s="30"/>
+      <c r="AP41" s="30"/>
+      <c r="AQ41" s="30"/>
+      <c r="AR41" s="30"/>
+    </row>
+    <row r="42" spans="1:44" ht="15" thickBot="1">
+      <c r="A42" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A43" s="3" t="s">
+      <c r="B42" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="J42" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="30"/>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="30"/>
+      <c r="AF42" s="30"/>
+      <c r="AG42" s="30"/>
+      <c r="AH42" s="30"/>
+      <c r="AI42" s="30"/>
+      <c r="AJ42" s="30"/>
+      <c r="AK42" s="30"/>
+      <c r="AL42" s="30"/>
+      <c r="AM42" s="30"/>
+      <c r="AN42" s="30"/>
+      <c r="AO42" s="30"/>
+      <c r="AP42" s="30"/>
+      <c r="AQ42" s="30"/>
+      <c r="AR42" s="30"/>
+    </row>
+    <row r="43" spans="1:44" ht="15" thickBot="1">
+      <c r="A43" s="7">
         <v>1</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="I43" s="13">
         <v>1</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H43" s="6" t="s">
+      <c r="J43" s="11"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="30"/>
+      <c r="AA43" s="30"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="30"/>
+      <c r="AD43" s="30"/>
+      <c r="AE43" s="30"/>
+      <c r="AF43" s="30"/>
+      <c r="AG43" s="30"/>
+      <c r="AH43" s="30"/>
+      <c r="AI43" s="30"/>
+      <c r="AJ43" s="30"/>
+      <c r="AK43" s="30"/>
+      <c r="AL43" s="30"/>
+      <c r="AM43" s="30"/>
+      <c r="AN43" s="30"/>
+      <c r="AO43" s="30"/>
+      <c r="AP43" s="30"/>
+      <c r="AQ43" s="30"/>
+      <c r="AR43" s="30"/>
+    </row>
+    <row r="44" spans="1:44" ht="15" thickBot="1">
+      <c r="A44" s="7">
         <v>2</v>
       </c>
-      <c r="I43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A44" s="7">
-        <v>1</v>
-      </c>
       <c r="B44" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="E44" s="10" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I44" s="13">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="14"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1">
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="30"/>
+      <c r="AG44" s="30"/>
+      <c r="AH44" s="30"/>
+      <c r="AI44" s="30"/>
+      <c r="AJ44" s="30"/>
+      <c r="AK44" s="30"/>
+      <c r="AL44" s="30"/>
+      <c r="AM44" s="30"/>
+      <c r="AN44" s="30"/>
+      <c r="AO44" s="30"/>
+      <c r="AP44" s="30"/>
+      <c r="AQ44" s="30"/>
+      <c r="AR44" s="30"/>
+    </row>
+    <row r="45" spans="1:44" ht="21" customHeight="1" thickBot="1">
       <c r="A45" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="15">
-        <v>30</v>
-      </c>
+      <c r="G45" s="11"/>
       <c r="H45" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
+      <c r="J45" s="14"/>
       <c r="K45" s="14"/>
-    </row>
-    <row r="46" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="A46" s="25">
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="30"/>
+      <c r="AG45" s="30"/>
+      <c r="AH45" s="30"/>
+      <c r="AI45" s="30"/>
+      <c r="AJ45" s="30"/>
+      <c r="AK45" s="30"/>
+      <c r="AL45" s="30"/>
+      <c r="AM45" s="30"/>
+      <c r="AN45" s="30"/>
+      <c r="AO45" s="30"/>
+      <c r="AP45" s="30"/>
+      <c r="AQ45" s="30"/>
+      <c r="AR45" s="30"/>
+    </row>
+    <row r="46" spans="1:44" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A46" s="7">
+        <v>4</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A47" s="25">
-        <v>4</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A48" s="25">
-        <v>5</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="30"/>
+      <c r="AD46" s="30"/>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="30"/>
+      <c r="AG46" s="30"/>
+      <c r="AH46" s="30"/>
+      <c r="AI46" s="30"/>
+      <c r="AJ46" s="30"/>
+      <c r="AK46" s="30"/>
+      <c r="AL46" s="30"/>
+      <c r="AM46" s="30"/>
+      <c r="AN46" s="30"/>
+      <c r="AO46" s="30"/>
+      <c r="AP46" s="30"/>
+      <c r="AQ46" s="30"/>
+      <c r="AR46" s="30"/>
+    </row>
+    <row r="47" spans="1:44" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A47" s="23"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="30"/>
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="30"/>
+      <c r="AG47" s="30"/>
+      <c r="AH47" s="30"/>
+      <c r="AI47" s="30"/>
+      <c r="AJ47" s="30"/>
+      <c r="AK47" s="30"/>
+      <c r="AL47" s="30"/>
+      <c r="AM47" s="30"/>
+      <c r="AN47" s="30"/>
+      <c r="AO47" s="30"/>
+      <c r="AP47" s="30"/>
+      <c r="AQ47" s="30"/>
+      <c r="AR47" s="30"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A41:B41"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
